--- a/Regression/sprint_regression/GME_regression_new/inbox_data_files/TestData.xlsx
+++ b/Regression/sprint_regression/GME_regression_new/inbox_data_files/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMALYGIN\Downloads\Regression-master (5)\Regression-master\Regression\sprint_regression\GME_regression_new\inbox_data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E43100-2F8B-4C3D-9DE5-79DDC68FA1F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8EA178-D341-45A8-8F3C-D4CA24931757}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="875">
   <si>
     <t>ksgurjeet44@gmail.com</t>
   </si>
@@ -2660,6 +2660,18 @@
   </si>
   <si>
     <t>21409</t>
+  </si>
+  <si>
+    <t>AC391416-1CC5</t>
+  </si>
+  <si>
+    <t>meted</t>
+  </si>
+  <si>
+    <t>99501BE9-A910</t>
+  </si>
+  <si>
+    <t>wpp</t>
   </si>
 </sst>
 </file>
@@ -4086,7 +4098,7 @@
   <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1048576"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -4169,7 +4181,7 @@
     </row>
     <row r="3" spans="1:19" customFormat="1">
       <c r="A3" s="68" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>206</v>
@@ -4193,7 +4205,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="68" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>783</v>
@@ -4215,7 +4227,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="68" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B5" s="68" t="s">
         <v>850</v>
@@ -4237,7 +4249,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="68" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B6" s="68" t="s">
         <v>852</v>
@@ -4259,7 +4271,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="68" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B7" s="68" t="s">
         <v>854</v>
@@ -4281,7 +4293,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="68" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>856</v>
@@ -4303,7 +4315,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="68" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B9" s="68" t="s">
         <v>857</v>
@@ -4325,7 +4337,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="68" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B10" s="68" t="s">
         <v>858</v>
@@ -4347,7 +4359,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="68" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>859</v>
@@ -4369,7 +4381,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="68" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>850</v>
@@ -4388,6 +4400,34 @@
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
       <c r="L12" s="68"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="68" t="s">
+        <v>759</v>
+      </c>
+      <c r="B13" s="73" t="s">
+        <v>871</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="68" t="s">
+        <v>760</v>
+      </c>
+      <c r="B14" s="73" t="s">
+        <v>873</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>773</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="35" spans="17:18">
       <c r="Q35" s="72"/>
@@ -4546,11 +4586,11 @@
       </c>
       <c r="O2" s="7">
         <f t="shared" ref="O2:O137" ca="1" si="2">RANDBETWEEN(6091111111,6099999999)</f>
-        <v>6095502024</v>
+        <v>6096294137</v>
       </c>
       <c r="P2" s="23">
         <f ca="1">RANDBETWEEN(10000000000,99999999999)</f>
-        <v>75076077126</v>
+        <v>64370362739</v>
       </c>
       <c r="Q2" s="7">
         <v>7411349747</v>
@@ -4610,11 +4650,11 @@
       </c>
       <c r="O3" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098454420</v>
+        <v>6094482430</v>
       </c>
       <c r="P3" s="23">
         <f ca="1">RANDBETWEEN(10000000000,99999999999)</f>
-        <v>65902901955</v>
+        <v>77005896113</v>
       </c>
       <c r="Q3" s="7">
         <v>7411349748</v>
@@ -4677,11 +4717,11 @@
       </c>
       <c r="O4" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095821008</v>
+        <v>6098180680</v>
       </c>
       <c r="P4" s="23">
         <f ca="1">RANDBETWEEN(10000000000,99999999999)</f>
-        <v>44509898017</v>
+        <v>21546784745</v>
       </c>
       <c r="Q4" s="7">
         <v>7411349749</v>
@@ -4744,11 +4784,11 @@
       </c>
       <c r="O5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094035161</v>
+        <v>6094909554</v>
       </c>
       <c r="P5" s="23">
         <f ca="1">RANDBETWEEN(1000000000000,9999999999999)</f>
-        <v>5186150215107</v>
+        <v>4456349777658</v>
       </c>
       <c r="Q5" s="7">
         <v>7411349750</v>
@@ -4811,11 +4851,11 @@
       </c>
       <c r="O6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094870009</v>
+        <v>6093910329</v>
       </c>
       <c r="P6" s="23">
         <f t="shared" ref="P6:P137" ca="1" si="4">RANDBETWEEN(10000000000,99999999999)</f>
-        <v>50716618971</v>
+        <v>19747730422</v>
       </c>
       <c r="Q6" s="7">
         <v>7411349751</v>
@@ -4878,11 +4918,11 @@
       </c>
       <c r="O7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095391536</v>
+        <v>6096822087</v>
       </c>
       <c r="P7" s="23">
         <f ca="1">RANDBETWEEN(1000000000000,9999999999999)</f>
-        <v>5985212221809</v>
+        <v>6618735246207</v>
       </c>
       <c r="Q7" s="7">
         <v>7411349752</v>
@@ -4948,11 +4988,11 @@
       </c>
       <c r="O8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092351052</v>
+        <v>6097081418</v>
       </c>
       <c r="P8" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>40690892121</v>
+        <v>45848542021</v>
       </c>
       <c r="Q8" s="7">
         <v>7411349753</v>
@@ -5015,11 +5055,11 @@
       </c>
       <c r="O9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097119372</v>
+        <v>6097640847</v>
       </c>
       <c r="P9" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>85169548765</v>
+        <v>82486926373</v>
       </c>
       <c r="Q9" s="7">
         <v>7411349754</v>
@@ -5082,11 +5122,11 @@
       </c>
       <c r="O10" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097693902</v>
+        <v>6096374686</v>
       </c>
       <c r="P10" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>14990954289</v>
+        <v>34462886882</v>
       </c>
       <c r="Q10" s="7">
         <v>7411349761</v>
@@ -5149,11 +5189,11 @@
       </c>
       <c r="O11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099506411</v>
+        <v>6098553069</v>
       </c>
       <c r="P11" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>73653053956</v>
+        <v>18951545731</v>
       </c>
       <c r="Q11" s="7">
         <v>7411349762</v>
@@ -5216,11 +5256,11 @@
       </c>
       <c r="O12" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093194368</v>
+        <v>6093661978</v>
       </c>
       <c r="P12" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>89696548398</v>
+        <v>67890794959</v>
       </c>
       <c r="Q12" s="7">
         <v>7411349763</v>
@@ -5283,11 +5323,11 @@
       </c>
       <c r="O13" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093019143</v>
+        <v>6097703317</v>
       </c>
       <c r="P13" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>33536689255</v>
+        <v>99570506933</v>
       </c>
       <c r="Q13" s="7">
         <v>7411349764</v>
@@ -5350,11 +5390,11 @@
       </c>
       <c r="O14" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098152993</v>
+        <v>6099347565</v>
       </c>
       <c r="P14" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>98542715802</v>
+        <v>20441714166</v>
       </c>
       <c r="Q14" s="7">
         <v>7411349765</v>
@@ -5417,11 +5457,11 @@
       </c>
       <c r="O15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097207735</v>
+        <v>6098762867</v>
       </c>
       <c r="P15" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>98070136806</v>
+        <v>47970678278</v>
       </c>
       <c r="Q15" s="7">
         <v>7411349766</v>
@@ -5484,11 +5524,11 @@
       </c>
       <c r="O16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096021993</v>
+        <v>6099119026</v>
       </c>
       <c r="P16" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>11693629530</v>
+        <v>84389834001</v>
       </c>
       <c r="Q16" s="7">
         <v>7411349767</v>
@@ -5551,11 +5591,11 @@
       </c>
       <c r="O17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092874539</v>
+        <v>6098760285</v>
       </c>
       <c r="P17" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>45179138089</v>
+        <v>53305738291</v>
       </c>
       <c r="Q17" s="7">
         <v>7411349768</v>
@@ -5618,11 +5658,11 @@
       </c>
       <c r="O18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096933206</v>
+        <v>6098275782</v>
       </c>
       <c r="P18" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>40898784580</v>
+        <v>75582637597</v>
       </c>
       <c r="Q18" s="7">
         <v>7411349769</v>
@@ -5685,11 +5725,11 @@
       </c>
       <c r="O19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092364349</v>
+        <v>6097207020</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>42502110402</v>
+        <v>18159488082</v>
       </c>
       <c r="Q19" s="7">
         <v>7411349770</v>
@@ -5752,11 +5792,11 @@
       </c>
       <c r="O20" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094640308</v>
+        <v>6092962044</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>39131942850</v>
+        <v>81016193402</v>
       </c>
       <c r="Q20" s="7">
         <v>7411349771</v>
@@ -5819,11 +5859,11 @@
       </c>
       <c r="O21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098753659</v>
+        <v>6091437161</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>50175877138</v>
+        <v>10952929941</v>
       </c>
       <c r="Q21" s="7">
         <v>7411349772</v>
@@ -5886,11 +5926,11 @@
       </c>
       <c r="O22" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096746389</v>
+        <v>6099718927</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>78466011125</v>
+        <v>39629901488</v>
       </c>
       <c r="Q22" s="7">
         <v>7411349773</v>
@@ -5953,11 +5993,11 @@
       </c>
       <c r="O23" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092278246</v>
+        <v>6099101321</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>44016656448</v>
+        <v>47225641260</v>
       </c>
       <c r="Q23" s="7">
         <v>7411349774</v>
@@ -6020,11 +6060,11 @@
       </c>
       <c r="O24" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099158158</v>
+        <v>6092847688</v>
       </c>
       <c r="P24" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>88147069058</v>
+        <v>49416563440</v>
       </c>
       <c r="Q24" s="7">
         <v>7411349775</v>
@@ -6087,11 +6127,11 @@
       </c>
       <c r="O25" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095876364</v>
+        <v>6094328527</v>
       </c>
       <c r="P25" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>56125717961</v>
+        <v>40558542088</v>
       </c>
       <c r="Q25" s="7">
         <v>7411349776</v>
@@ -6154,11 +6194,11 @@
       </c>
       <c r="O26" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094314291</v>
+        <v>6094177519</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>15730803490</v>
+        <v>87521760513</v>
       </c>
       <c r="Q26" s="7">
         <v>7411349777</v>
@@ -6221,11 +6261,11 @@
       </c>
       <c r="O27" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098387873</v>
+        <v>6095046749</v>
       </c>
       <c r="P27" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>94425228883</v>
+        <v>25155093687</v>
       </c>
       <c r="Q27" s="7">
         <v>7411349778</v>
@@ -6288,11 +6328,11 @@
       </c>
       <c r="O28" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093520206</v>
+        <v>6094303815</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>25839434309</v>
+        <v>82286159637</v>
       </c>
       <c r="Q28" s="7">
         <v>7411349779</v>
@@ -6355,11 +6395,11 @@
       </c>
       <c r="O29" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>6097321553</v>
+        <v>6094321219</v>
       </c>
       <c r="P29" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>56805305130</v>
+        <v>63487900964</v>
       </c>
       <c r="Q29" s="56">
         <v>7411349780</v>
@@ -6425,11 +6465,11 @@
       </c>
       <c r="O30" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095967656</v>
+        <v>6091131200</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>27225480924</v>
+        <v>74991502426</v>
       </c>
       <c r="Q30" s="7">
         <v>7411349781</v>
@@ -6492,11 +6532,11 @@
       </c>
       <c r="O31" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095387976</v>
+        <v>6095122718</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>72733295371</v>
+        <v>96408933366</v>
       </c>
       <c r="Q31" s="7">
         <v>7411349782</v>
@@ -6559,11 +6599,11 @@
       </c>
       <c r="O32" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099181487</v>
+        <v>6092356143</v>
       </c>
       <c r="P32" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>70151260293</v>
+        <v>51555680925</v>
       </c>
       <c r="Q32" s="7">
         <v>7411349783</v>
@@ -6626,11 +6666,11 @@
       </c>
       <c r="O33" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093471774</v>
+        <v>6096073590</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>39781748185</v>
+        <v>44152216612</v>
       </c>
       <c r="Q33" s="7">
         <v>7411349784</v>
@@ -6693,11 +6733,11 @@
       </c>
       <c r="O34" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097588645</v>
+        <v>6098681109</v>
       </c>
       <c r="P34" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>41612793924</v>
+        <v>98698560432</v>
       </c>
       <c r="Q34" s="7">
         <v>7411349785</v>
@@ -6760,11 +6800,11 @@
       </c>
       <c r="O35" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6094860607</v>
+        <v>6095232251</v>
       </c>
       <c r="P35" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>98163209022</v>
+        <v>70849442190</v>
       </c>
       <c r="Q35" s="45">
         <v>7411349786</v>
@@ -6831,11 +6871,11 @@
       </c>
       <c r="O36" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095574764</v>
+        <v>6096533944</v>
       </c>
       <c r="P36" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>92297963563</v>
+        <v>45182082787</v>
       </c>
       <c r="Q36" s="7">
         <v>7411349787</v>
@@ -6898,11 +6938,11 @@
       </c>
       <c r="O37" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092132649</v>
+        <v>6097650078</v>
       </c>
       <c r="P37" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>74859444415</v>
+        <v>13856572698</v>
       </c>
       <c r="Q37" s="7">
         <v>7411349788</v>
@@ -6965,11 +7005,11 @@
       </c>
       <c r="O38" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093629970</v>
+        <v>6092432887</v>
       </c>
       <c r="P38" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>14089427695</v>
+        <v>73496208160</v>
       </c>
       <c r="Q38" s="7">
         <v>7411349789</v>
@@ -7032,11 +7072,11 @@
       </c>
       <c r="O39" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098333403</v>
+        <v>6096484693</v>
       </c>
       <c r="P39" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>69424776647</v>
+        <v>86374961918</v>
       </c>
       <c r="Q39" s="7">
         <v>7411349790</v>
@@ -7099,11 +7139,11 @@
       </c>
       <c r="O40" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092407264</v>
+        <v>6093282253</v>
       </c>
       <c r="P40" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>91383192321</v>
+        <v>27657737280</v>
       </c>
       <c r="Q40" s="7">
         <v>7411349791</v>
@@ -7166,11 +7206,11 @@
       </c>
       <c r="O41" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096801776</v>
+        <v>6097412836</v>
       </c>
       <c r="P41" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>35006965545</v>
+        <v>75033555752</v>
       </c>
       <c r="Q41" s="7">
         <v>7411349792</v>
@@ -7233,11 +7273,11 @@
       </c>
       <c r="O42" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6095999394</v>
+        <v>6093070957</v>
       </c>
       <c r="P42" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>84091807661</v>
+        <v>44309236219</v>
       </c>
       <c r="Q42" s="45">
         <v>7411349793</v>
@@ -7304,11 +7344,11 @@
       </c>
       <c r="O43" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099759012</v>
+        <v>6093521391</v>
       </c>
       <c r="P43" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>28602257301</v>
+        <v>55195718928</v>
       </c>
       <c r="Q43" s="7">
         <v>7411349794</v>
@@ -7371,11 +7411,11 @@
       </c>
       <c r="O44" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094974658</v>
+        <v>6093665367</v>
       </c>
       <c r="P44" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>15222270881</v>
+        <v>81141967398</v>
       </c>
       <c r="Q44" s="7">
         <v>7411349795</v>
@@ -7438,11 +7478,11 @@
       </c>
       <c r="O45" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098685687</v>
+        <v>6097311583</v>
       </c>
       <c r="P45" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>79898391952</v>
+        <v>58141556478</v>
       </c>
       <c r="Q45" s="7">
         <v>7411349796</v>
@@ -7505,11 +7545,11 @@
       </c>
       <c r="O46" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098959692</v>
+        <v>6097310758</v>
       </c>
       <c r="P46" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>49900576230</v>
+        <v>11064525307</v>
       </c>
       <c r="Q46" s="7">
         <v>7411349797</v>
@@ -7572,11 +7612,11 @@
       </c>
       <c r="O47" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097909897</v>
+        <v>6099647477</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>40633905418</v>
+        <v>49683562485</v>
       </c>
       <c r="Q47" s="7">
         <v>7411349798</v>
@@ -7639,11 +7679,11 @@
       </c>
       <c r="O48" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093569423</v>
+        <v>6096845201</v>
       </c>
       <c r="P48" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>39749472511</v>
+        <v>29115323356</v>
       </c>
       <c r="Q48" s="7">
         <v>7411349799</v>
@@ -7706,11 +7746,11 @@
       </c>
       <c r="O49" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099389251</v>
+        <v>6092743596</v>
       </c>
       <c r="P49" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>56579630005</v>
+        <v>27477955496</v>
       </c>
       <c r="Q49" s="7">
         <v>7411349800</v>
@@ -7773,11 +7813,11 @@
       </c>
       <c r="O50" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094006473</v>
+        <v>6099542531</v>
       </c>
       <c r="P50" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>87973594188</v>
+        <v>10348220133</v>
       </c>
       <c r="Q50" s="7">
         <v>7411349801</v>
@@ -7840,11 +7880,11 @@
       </c>
       <c r="O51" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094341197</v>
+        <v>6098899956</v>
       </c>
       <c r="P51" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>97655967253</v>
+        <v>95966831661</v>
       </c>
       <c r="Q51" s="7">
         <v>7411349802</v>
@@ -7907,11 +7947,11 @@
       </c>
       <c r="O52" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093271834</v>
+        <v>6096834159</v>
       </c>
       <c r="P52" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>88382111354</v>
+        <v>62085699044</v>
       </c>
       <c r="Q52" s="7">
         <v>7411349803</v>
@@ -7974,11 +8014,11 @@
       </c>
       <c r="O53" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099494946</v>
+        <v>6093370538</v>
       </c>
       <c r="P53" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>52033079701</v>
+        <v>44478454637</v>
       </c>
       <c r="Q53" s="7">
         <v>7411349804</v>
@@ -8041,11 +8081,11 @@
       </c>
       <c r="O54" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098715516</v>
+        <v>6093062059</v>
       </c>
       <c r="P54" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>30715993947</v>
+        <v>57504086115</v>
       </c>
       <c r="Q54" s="7">
         <v>7411349805</v>
@@ -8108,11 +8148,11 @@
       </c>
       <c r="O55" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098491181</v>
+        <v>6098385408</v>
       </c>
       <c r="P55" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>48536520178</v>
+        <v>95662333784</v>
       </c>
       <c r="Q55" s="7">
         <v>7411349806</v>
@@ -8175,11 +8215,11 @@
       </c>
       <c r="O56" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097061260</v>
+        <v>6094260808</v>
       </c>
       <c r="P56" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>60555495604</v>
+        <v>31582879127</v>
       </c>
       <c r="Q56" s="7">
         <v>7411349807</v>
@@ -8242,11 +8282,11 @@
       </c>
       <c r="O57" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6091164273</v>
+        <v>6095510730</v>
       </c>
       <c r="P57" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>97753846686</v>
+        <v>10921493071</v>
       </c>
       <c r="Q57" s="7">
         <v>7411349808</v>
@@ -8309,11 +8349,11 @@
       </c>
       <c r="O58" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095087401</v>
+        <v>6096469046</v>
       </c>
       <c r="P58" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>44970136054</v>
+        <v>21753634122</v>
       </c>
       <c r="Q58" s="7">
         <v>7411349809</v>
@@ -8376,11 +8416,11 @@
       </c>
       <c r="O59" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098409858</v>
+        <v>6091460522</v>
       </c>
       <c r="P59" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>35029858910</v>
+        <v>50931914442</v>
       </c>
       <c r="Q59" s="7">
         <v>7411349810</v>
@@ -8443,11 +8483,11 @@
       </c>
       <c r="O60" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093204230</v>
+        <v>6098855374</v>
       </c>
       <c r="P60" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>41756826694</v>
+        <v>86503579513</v>
       </c>
       <c r="Q60" s="7">
         <v>7411349811</v>
@@ -8510,11 +8550,11 @@
       </c>
       <c r="O61" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096327335</v>
+        <v>6092804407</v>
       </c>
       <c r="P61" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>45240338955</v>
+        <v>62991610305</v>
       </c>
       <c r="Q61" s="7">
         <v>7411349812</v>
@@ -8577,11 +8617,11 @@
       </c>
       <c r="O62" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093859771</v>
+        <v>6092775993</v>
       </c>
       <c r="P62" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>87534540476</v>
+        <v>81904921016</v>
       </c>
       <c r="Q62" s="7">
         <v>7411349813</v>
@@ -8644,11 +8684,11 @@
       </c>
       <c r="O63" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6095283304</v>
+        <v>6096975031</v>
       </c>
       <c r="P63" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>71721362538</v>
+        <v>16423384933</v>
       </c>
       <c r="Q63" s="45">
         <v>7411349814</v>
@@ -8715,11 +8755,11 @@
       </c>
       <c r="O64" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095120965</v>
+        <v>6092260396</v>
       </c>
       <c r="P64" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>83053185865</v>
+        <v>89850480543</v>
       </c>
       <c r="Q64" s="7">
         <v>7411349815</v>
@@ -8782,11 +8822,11 @@
       </c>
       <c r="O65" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098293620</v>
+        <v>6094664380</v>
       </c>
       <c r="P65" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>50417317036</v>
+        <v>56229933047</v>
       </c>
       <c r="Q65" s="7">
         <v>7411349816</v>
@@ -8849,11 +8889,11 @@
       </c>
       <c r="O66" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097664457</v>
+        <v>6098386725</v>
       </c>
       <c r="P66" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>47003453625</v>
+        <v>52025256060</v>
       </c>
       <c r="Q66" s="7">
         <v>7411349817</v>
@@ -8916,11 +8956,11 @@
       </c>
       <c r="O67" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094180710</v>
+        <v>6092222621</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>13440960712</v>
+        <v>10180230437</v>
       </c>
       <c r="Q67" s="7">
         <v>7411349818</v>
@@ -8983,11 +9023,11 @@
       </c>
       <c r="O68" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097831176</v>
+        <v>6096642542</v>
       </c>
       <c r="P68" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>15968285745</v>
+        <v>67464114009</v>
       </c>
       <c r="Q68" s="7">
         <v>7411349819</v>
@@ -9050,11 +9090,11 @@
       </c>
       <c r="O69" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093913600</v>
+        <v>6092211454</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>83483003465</v>
+        <v>37916529256</v>
       </c>
       <c r="Q69" s="7">
         <v>7411349820</v>
@@ -9117,11 +9157,11 @@
       </c>
       <c r="O70" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6091167334</v>
+        <v>6098389668</v>
       </c>
       <c r="P70" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>52548240008</v>
+        <v>67938997736</v>
       </c>
       <c r="Q70" s="7">
         <v>7411349821</v>
@@ -9184,11 +9224,11 @@
       </c>
       <c r="O71" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093638013</v>
+        <v>6095996689</v>
       </c>
       <c r="P71" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>22738246062</v>
+        <v>94937147492</v>
       </c>
       <c r="Q71" s="7">
         <v>7411349822</v>
@@ -9251,11 +9291,11 @@
       </c>
       <c r="O72" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094530070</v>
+        <v>6095691899</v>
       </c>
       <c r="P72" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>42133486098</v>
+        <v>49122880873</v>
       </c>
       <c r="Q72" s="7">
         <v>7411349823</v>
@@ -9318,11 +9358,11 @@
       </c>
       <c r="O73" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095361669</v>
+        <v>6095065101</v>
       </c>
       <c r="P73" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>48191877518</v>
+        <v>47770120252</v>
       </c>
       <c r="Q73" s="7">
         <v>7411349824</v>
@@ -9385,11 +9425,11 @@
       </c>
       <c r="O74" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6094492631</v>
+        <v>6097621135</v>
       </c>
       <c r="P74" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>51539565185</v>
+        <v>17788186929</v>
       </c>
       <c r="Q74" s="45">
         <v>7411349825</v>
@@ -9456,11 +9496,11 @@
       </c>
       <c r="O75" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093172445</v>
+        <v>6099793783</v>
       </c>
       <c r="P75" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>50254774130</v>
+        <v>26262788265</v>
       </c>
       <c r="Q75" s="7">
         <v>7411349826</v>
@@ -9523,11 +9563,11 @@
       </c>
       <c r="O76" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094187501</v>
+        <v>6094509561</v>
       </c>
       <c r="P76" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>80442809290</v>
+        <v>13663325863</v>
       </c>
       <c r="Q76" s="7">
         <v>7411349827</v>
@@ -9590,11 +9630,11 @@
       </c>
       <c r="O77" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095501170</v>
+        <v>6092916008</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>28832716802</v>
+        <v>48447781356</v>
       </c>
       <c r="Q77" s="7">
         <v>7411349828</v>
@@ -9657,11 +9697,11 @@
       </c>
       <c r="O78" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097349323</v>
+        <v>6097046698</v>
       </c>
       <c r="P78" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>88454092030</v>
+        <v>72113331691</v>
       </c>
       <c r="Q78" s="7">
         <v>7411349829</v>
@@ -9724,11 +9764,11 @@
       </c>
       <c r="O79" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6096839006</v>
+        <v>6094741399</v>
       </c>
       <c r="P79" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>92690846299</v>
+        <v>93527105516</v>
       </c>
       <c r="Q79" s="14">
         <v>7411349830</v>
@@ -9791,11 +9831,11 @@
       </c>
       <c r="O80" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6092700745</v>
+        <v>6093925581</v>
       </c>
       <c r="P80" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>32457881600</v>
+        <v>33261578844</v>
       </c>
       <c r="Q80" s="14">
         <v>7411349831</v>
@@ -9858,11 +9898,11 @@
       </c>
       <c r="O81" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6092903669</v>
+        <v>6098076551</v>
       </c>
       <c r="P81" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>82504670719</v>
+        <v>36383557218</v>
       </c>
       <c r="Q81" s="14">
         <v>7411349832</v>
@@ -9925,11 +9965,11 @@
       </c>
       <c r="O82" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6099834175</v>
+        <v>6093227391</v>
       </c>
       <c r="P82" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>51505168807</v>
+        <v>47489614382</v>
       </c>
       <c r="Q82" s="14">
         <v>7411349833</v>
@@ -9992,11 +10032,11 @@
       </c>
       <c r="O83" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6095673827</v>
+        <v>6099004592</v>
       </c>
       <c r="P83" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>68491197033</v>
+        <v>71299297351</v>
       </c>
       <c r="Q83" s="14">
         <v>7411349834</v>
@@ -10059,11 +10099,11 @@
       </c>
       <c r="O84" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6099190510</v>
+        <v>6098939820</v>
       </c>
       <c r="P84" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>47335442171</v>
+        <v>72502984683</v>
       </c>
       <c r="Q84" s="14">
         <v>7411349835</v>
@@ -10126,11 +10166,11 @@
       </c>
       <c r="O85" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>6096966951</v>
+        <v>6098280274</v>
       </c>
       <c r="P85" s="62">
         <f t="shared" ca="1" si="4"/>
-        <v>38043743242</v>
+        <v>70749029597</v>
       </c>
       <c r="Q85" s="14">
         <v>7411349836</v>
@@ -10193,11 +10233,11 @@
       </c>
       <c r="O86" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099424678</v>
+        <v>6091902810</v>
       </c>
       <c r="P86" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>12137103814</v>
+        <v>57321143739</v>
       </c>
       <c r="Q86" s="7">
         <v>7411349837</v>
@@ -10260,11 +10300,11 @@
       </c>
       <c r="O87" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>6092436691</v>
+        <v>6093728401</v>
       </c>
       <c r="P87" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>70491775418</v>
+        <v>79407948917</v>
       </c>
       <c r="Q87" s="56">
         <v>7411349838</v>
@@ -10327,11 +10367,11 @@
       </c>
       <c r="O88" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097413235</v>
+        <v>6098700270</v>
       </c>
       <c r="P88" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>88924961631</v>
+        <v>68327390030</v>
       </c>
       <c r="Q88" s="7">
         <v>7411349839</v>
@@ -10394,11 +10434,11 @@
       </c>
       <c r="O89" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094823289</v>
+        <v>6094645369</v>
       </c>
       <c r="P89" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>52909911487</v>
+        <v>52069645753</v>
       </c>
       <c r="Q89" s="7">
         <v>7411349840</v>
@@ -10461,11 +10501,11 @@
       </c>
       <c r="O90" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099691634</v>
+        <v>6091988007</v>
       </c>
       <c r="P90" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>49886328230</v>
+        <v>84134514956</v>
       </c>
       <c r="Q90" s="7">
         <v>7411349841</v>
@@ -10528,11 +10568,11 @@
       </c>
       <c r="O91" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6091966143</v>
+        <v>6097482913</v>
       </c>
       <c r="P91" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>79108060912</v>
+        <v>34310354772</v>
       </c>
       <c r="Q91" s="7">
         <v>7411349842</v>
@@ -10595,11 +10635,11 @@
       </c>
       <c r="O92" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092635265</v>
+        <v>6097471550</v>
       </c>
       <c r="P92" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>42213371868</v>
+        <v>99657466898</v>
       </c>
       <c r="Q92" s="7">
         <v>7411349843</v>
@@ -10662,11 +10702,11 @@
       </c>
       <c r="O93" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096410666</v>
+        <v>6094262014</v>
       </c>
       <c r="P93" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>47932908193</v>
+        <v>71114381510</v>
       </c>
       <c r="Q93" s="7">
         <v>7411349844</v>
@@ -10729,11 +10769,11 @@
       </c>
       <c r="O94" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098035725</v>
+        <v>6095935443</v>
       </c>
       <c r="P94" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>86177671453</v>
+        <v>49403788832</v>
       </c>
       <c r="Q94" s="7">
         <v>7411349845</v>
@@ -10796,11 +10836,11 @@
       </c>
       <c r="O95" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6097918419</v>
+        <v>6092243403</v>
       </c>
       <c r="P95" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>57140253419</v>
+        <v>99205117522</v>
       </c>
       <c r="Q95" s="7">
         <v>7411349846</v>
@@ -10863,11 +10903,11 @@
       </c>
       <c r="O96" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093334101</v>
+        <v>6094732675</v>
       </c>
       <c r="P96" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>63502458957</v>
+        <v>34906683088</v>
       </c>
       <c r="Q96" s="7">
         <v>7411349847</v>
@@ -10930,11 +10970,11 @@
       </c>
       <c r="O97" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>6091542375</v>
+        <v>6098326599</v>
       </c>
       <c r="P97" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>90952922667</v>
+        <v>48160451328</v>
       </c>
       <c r="Q97" s="56">
         <v>7411349848</v>
@@ -10997,11 +11037,11 @@
       </c>
       <c r="O98" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099306795</v>
+        <v>6093284230</v>
       </c>
       <c r="P98" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>55373492886</v>
+        <v>82553011393</v>
       </c>
       <c r="Q98" s="7">
         <v>7411349849</v>
@@ -11064,11 +11104,11 @@
       </c>
       <c r="O99" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094540025</v>
+        <v>6095499313</v>
       </c>
       <c r="P99" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>23632590852</v>
+        <v>94854406120</v>
       </c>
       <c r="Q99" s="7">
         <v>7411349850</v>
@@ -11131,11 +11171,11 @@
       </c>
       <c r="O100" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099310539</v>
+        <v>6097931535</v>
       </c>
       <c r="P100" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>77408357670</v>
+        <v>69843946903</v>
       </c>
       <c r="Q100" s="7">
         <v>7411349851</v>
@@ -11198,11 +11238,11 @@
       </c>
       <c r="O101" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6093840061</v>
+        <v>6092260354</v>
       </c>
       <c r="P101" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>51345772161</v>
+        <v>81081876159</v>
       </c>
       <c r="Q101" s="45">
         <v>7411349852</v>
@@ -11269,11 +11309,11 @@
       </c>
       <c r="O102" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092436735</v>
+        <v>6095960410</v>
       </c>
       <c r="P102" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>23577575036</v>
+        <v>80925756062</v>
       </c>
       <c r="Q102" s="7">
         <v>7411349853</v>
@@ -11336,11 +11376,11 @@
       </c>
       <c r="O103" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094455608</v>
+        <v>6097488804</v>
       </c>
       <c r="P103" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>22914873290</v>
+        <v>67564596009</v>
       </c>
       <c r="Q103" s="7">
         <v>7411349854</v>
@@ -11403,11 +11443,11 @@
       </c>
       <c r="O104" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6093108753</v>
+        <v>6097423429</v>
       </c>
       <c r="P104" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>42358189614</v>
+        <v>60877021827</v>
       </c>
       <c r="Q104" s="7">
         <v>7411349855</v>
@@ -11470,11 +11510,11 @@
       </c>
       <c r="O105" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096578405</v>
+        <v>6097595159</v>
       </c>
       <c r="P105" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>10749536356</v>
+        <v>10625553944</v>
       </c>
       <c r="Q105" s="7">
         <v>7411349856</v>
@@ -11537,11 +11577,11 @@
       </c>
       <c r="O106" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6091981646</v>
+        <v>6099160584</v>
       </c>
       <c r="P106" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>50486969991</v>
+        <v>80269849049</v>
       </c>
       <c r="Q106" s="7">
         <v>7411349857</v>
@@ -11604,11 +11644,11 @@
       </c>
       <c r="O107" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099576280</v>
+        <v>6098824833</v>
       </c>
       <c r="P107" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>96288803060</v>
+        <v>44432914482</v>
       </c>
       <c r="Q107" s="7">
         <v>7411349858</v>
@@ -11671,11 +11711,11 @@
       </c>
       <c r="O108" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092110280</v>
+        <v>6094614168</v>
       </c>
       <c r="P108" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>44618259684</v>
+        <v>33544711479</v>
       </c>
       <c r="Q108" s="7">
         <v>7411349859</v>
@@ -11738,11 +11778,11 @@
       </c>
       <c r="O109" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095327318</v>
+        <v>6094581899</v>
       </c>
       <c r="P109" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>73540854835</v>
+        <v>24227806617</v>
       </c>
       <c r="Q109" s="7">
         <v>7411349860</v>
@@ -11805,11 +11845,11 @@
       </c>
       <c r="O110" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092657787</v>
+        <v>6099753208</v>
       </c>
       <c r="P110" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>50604039923</v>
+        <v>15896399334</v>
       </c>
       <c r="Q110" s="7">
         <v>7411349861</v>
@@ -11872,11 +11912,11 @@
       </c>
       <c r="O111" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092124240</v>
+        <v>6091180655</v>
       </c>
       <c r="P111" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>29858661216</v>
+        <v>89525280459</v>
       </c>
       <c r="Q111" s="7">
         <v>7411349862</v>
@@ -11939,11 +11979,11 @@
       </c>
       <c r="O112" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094648633</v>
+        <v>6096601560</v>
       </c>
       <c r="P112" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>23945643661</v>
+        <v>19063356131</v>
       </c>
       <c r="Q112" s="7">
         <v>7411349863</v>
@@ -12006,11 +12046,11 @@
       </c>
       <c r="O113" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094455671</v>
+        <v>6094282281</v>
       </c>
       <c r="P113" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>84387876778</v>
+        <v>63059090113</v>
       </c>
       <c r="Q113" s="7">
         <v>7411349864</v>
@@ -12073,11 +12113,11 @@
       </c>
       <c r="O114" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096176510</v>
+        <v>6097732996</v>
       </c>
       <c r="P114" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>39495761236</v>
+        <v>90636868877</v>
       </c>
       <c r="Q114" s="7">
         <v>7411349865</v>
@@ -12140,11 +12180,11 @@
       </c>
       <c r="O115" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094383122</v>
+        <v>6096003434</v>
       </c>
       <c r="P115" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>28197279269</v>
+        <v>35122884918</v>
       </c>
       <c r="Q115" s="7">
         <v>7411349866</v>
@@ -12207,11 +12247,11 @@
       </c>
       <c r="O116" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6096141798</v>
+        <v>6099858730</v>
       </c>
       <c r="P116" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>87417103331</v>
+        <v>46821939114</v>
       </c>
       <c r="Q116" s="7">
         <v>7411349867</v>
@@ -12274,11 +12314,11 @@
       </c>
       <c r="O117" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>6096035192</v>
+        <v>6097174532</v>
       </c>
       <c r="P117" s="57">
         <f t="shared" ca="1" si="4"/>
-        <v>65291076654</v>
+        <v>93243368082</v>
       </c>
       <c r="Q117" s="56">
         <v>7411349868</v>
@@ -12341,11 +12381,11 @@
       </c>
       <c r="O118" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094689066</v>
+        <v>6096824573</v>
       </c>
       <c r="P118" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>10820150184</v>
+        <v>75956127762</v>
       </c>
       <c r="Q118" s="7">
         <v>7411349869</v>
@@ -12408,11 +12448,11 @@
       </c>
       <c r="O119" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092154066</v>
+        <v>6099014373</v>
       </c>
       <c r="P119" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>37314565088</v>
+        <v>40843741073</v>
       </c>
       <c r="Q119" s="7">
         <v>7411349870</v>
@@ -12475,11 +12515,11 @@
       </c>
       <c r="O120" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094452108</v>
+        <v>6095799566</v>
       </c>
       <c r="P120" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>60271555915</v>
+        <v>88313594806</v>
       </c>
       <c r="Q120" s="7">
         <v>7411349871</v>
@@ -12542,11 +12582,11 @@
       </c>
       <c r="O121" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095030671</v>
+        <v>6095067182</v>
       </c>
       <c r="P121" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>16614567860</v>
+        <v>61346112477</v>
       </c>
       <c r="Q121" s="7">
         <v>7411349872</v>
@@ -12609,11 +12649,11 @@
       </c>
       <c r="O122" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099664815</v>
+        <v>6094104931</v>
       </c>
       <c r="P122" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>17102481588</v>
+        <v>47051947340</v>
       </c>
       <c r="Q122" s="7">
         <v>7411349873</v>
@@ -12676,11 +12716,11 @@
       </c>
       <c r="O123" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6095412938</v>
+        <v>6096790304</v>
       </c>
       <c r="P123" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>71516325787</v>
+        <v>18290184639</v>
       </c>
       <c r="Q123" s="7">
         <v>7411349874</v>
@@ -12743,11 +12783,11 @@
       </c>
       <c r="O124" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6091932361</v>
+        <v>6098231059</v>
       </c>
       <c r="P124" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>54026894573</v>
+        <v>62689419859</v>
       </c>
       <c r="Q124" s="7">
         <v>7411349875</v>
@@ -12810,11 +12850,11 @@
       </c>
       <c r="O125" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099623769</v>
+        <v>6095048703</v>
       </c>
       <c r="P125" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>58404829403</v>
+        <v>98116932638</v>
       </c>
       <c r="Q125" s="7">
         <v>7411349876</v>
@@ -12877,11 +12917,11 @@
       </c>
       <c r="O126" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6094820768</v>
+        <v>6095687999</v>
       </c>
       <c r="P126" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>41925873406</v>
+        <v>93408338467</v>
       </c>
       <c r="Q126" s="7">
         <v>7411349877</v>
@@ -12944,11 +12984,11 @@
       </c>
       <c r="O127" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6099584820</v>
+        <v>6093558132</v>
       </c>
       <c r="P127" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>29624173022</v>
+        <v>90366920124</v>
       </c>
       <c r="Q127" s="7">
         <v>7411349878</v>
@@ -13011,11 +13051,11 @@
       </c>
       <c r="O128" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6097170251</v>
+        <v>6096867430</v>
       </c>
       <c r="P128" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>80687141101</v>
+        <v>78358757928</v>
       </c>
       <c r="Q128" s="45">
         <v>7411349879</v>
@@ -13082,11 +13122,11 @@
       </c>
       <c r="O129" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>6091636755</v>
+        <v>6097035332</v>
       </c>
       <c r="P129" s="46">
         <f t="shared" ca="1" si="4"/>
-        <v>88175109734</v>
+        <v>30610858625</v>
       </c>
       <c r="Q129" s="45">
         <v>7411349880</v>
@@ -13153,11 +13193,11 @@
       </c>
       <c r="O130" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6092470902</v>
+        <v>6097257885</v>
       </c>
       <c r="P130" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>62781667909</v>
+        <v>70409433358</v>
       </c>
       <c r="Q130" s="7">
         <v>7411349881</v>
@@ -13220,11 +13260,11 @@
       </c>
       <c r="O131" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6098542393</v>
+        <v>6099001705</v>
       </c>
       <c r="P131" s="23">
         <f t="shared" ca="1" si="4"/>
-        <v>41613769489</v>
+        <v>23679576385</v>
       </c>
       <c r="Q131" s="7">
         <v>7411349882</v>
@@ -13287,11 +13327,11 @@
       </c>
       <c r="O132" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6097154597</v>
+        <v>6093227397</v>
       </c>
       <c r="P132" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>56083133354</v>
+        <v>33499307772</v>
       </c>
       <c r="Q132" s="34">
         <v>7411349755</v>
@@ -13355,11 +13395,11 @@
       </c>
       <c r="O133" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6093494269</v>
+        <v>6097296468</v>
       </c>
       <c r="P133" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>20109124684</v>
+        <v>80780136908</v>
       </c>
       <c r="Q133" s="34">
         <v>7411349756</v>
@@ -13423,11 +13463,11 @@
       </c>
       <c r="O134" s="34" t="str">
         <f ca="1">CONCATENATE("05",(RANDBETWEEN(10000000000000000000,99999999999999900000)))</f>
-        <v>0528463314756024700000</v>
+        <v>0555081076192787400000</v>
       </c>
       <c r="P134" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>58715201643</v>
+        <v>70591467006</v>
       </c>
       <c r="Q134" s="34">
         <v>7411349757</v>
@@ -13491,11 +13531,11 @@
       </c>
       <c r="O135" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6099524284</v>
+        <v>6096038185</v>
       </c>
       <c r="P135" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>75117537985</v>
+        <v>81569134980</v>
       </c>
       <c r="Q135" s="34">
         <v>7411349758</v>
@@ -13559,11 +13599,11 @@
       </c>
       <c r="O136" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6095547597</v>
+        <v>6095780813</v>
       </c>
       <c r="P136" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>46194373937</v>
+        <v>80245571955</v>
       </c>
       <c r="Q136" s="34">
         <v>7411349759</v>
@@ -13627,11 +13667,11 @@
       </c>
       <c r="O137" s="34">
         <f t="shared" ca="1" si="2"/>
-        <v>6095208933</v>
+        <v>6099375659</v>
       </c>
       <c r="P137" s="35">
         <f t="shared" ca="1" si="4"/>
-        <v>87149119327</v>
+        <v>17970205881</v>
       </c>
       <c r="Q137" s="34">
         <v>7411349760</v>
